--- a/4ИСИП-619/4ИСИП-619_РазПрогМод.xlsx
+++ b/4ИСИП-619/4ИСИП-619_РазПрогМод.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0\4ИСИП-619\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D553FA-B3E0-4365-AEE4-398A9100BECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9EA212-F82A-4FA0-801D-54B28906343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Воронов Алексей</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>Lab6</t>
+  </si>
+  <si>
+    <t>Lab7</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Lab8</t>
   </si>
 </sst>
 </file>
@@ -516,10 +525,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -573,8 +582,12 @@
       <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
@@ -833,16 +846,28 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
       <c r="H20" s="2">
         <v>5</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
